--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ccs\CS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA79CC-9A9E-497B-AC5C-A53C6DD175A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A59A9D-1519-4868-94FE-D55646C4FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BCS" sheetId="4" r:id="rId2"/>
+    <sheet name="Electricity Calculations" sheetId="5" r:id="rId2"/>
+    <sheet name="BCS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$10</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -31,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">About!$A$8</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">About!$A$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source:</t>
   </si>
@@ -90,6 +91,21 @@
   </si>
   <si>
     <t>45Q Tax Credit Amount</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>Repayment Period for Financing</t>
+  </si>
+  <si>
+    <t>45Q Credit Duration</t>
+  </si>
+  <si>
+    <t>Credit Value</t>
+  </si>
+  <si>
+    <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
   </si>
 </sst>
 </file>
@@ -145,7 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -155,7 +171,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -176,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,9 +233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,26 +268,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,26 +303,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,19 +515,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>0.78500000000000003</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>85</v>
       </c>
     </row>
@@ -555,6 +543,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB35C55-7F27-44A6-A8A7-496D78F28576}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7">
+        <f>About!B11</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <f>B1*B3/B2</f>
+        <v>42.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -562,7 +602,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,44 +717,44 @@
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="E2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="F2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="G2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="H2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="I2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="J2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="K2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="L2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="M2" s="7">
-        <f>About!$B$10*About!$A$8</f>
-        <v>66.725000000000009</v>
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>33.362500000000004</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -781,44 +821,44 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="D3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="E3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="E3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="F3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="F3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="G3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="G3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="H3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="H3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="I3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="I3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="J3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="J3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="K3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="K3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="L3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="L3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
-      <c r="M3" s="7">
-        <f>About!$B$10*About!$A$8</f>
+      <c r="M3">
+        <f>About!$B$11*About!$A$9</f>
         <v>66.725000000000009</v>
       </c>
       <c r="N3">

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A59A9D-1519-4868-94FE-D55646C4FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB2AB3-FE1A-4C06-98D6-C7F0874829B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29670" yWindow="2655" windowWidth="26940" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,7 +172,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -482,7 +481,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +515,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -547,7 +546,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +585,7 @@
       </c>
       <c r="B4" s="7">
         <f>B1*B3/B2</f>
-        <v>42.5</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -718,43 +717,43 @@
       </c>
       <c r="D2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="E2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="F2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="G2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="H2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="I2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="J2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="K2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="L2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="M2" s="7">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>33.362500000000004</v>
+        <v>40.035000000000004</v>
       </c>
       <c r="N2">
         <v>0</v>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Kentucky\eps-kentucky\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB2AB3-FE1A-4C06-98D6-C7F0874829B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29670" yWindow="2655" windowWidth="26940" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,6 +172,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -480,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +601,7 @@
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
@@ -715,43 +716,43 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <f>'Electricity Calculations'!$B$4*About!$A$9</f>
         <v>40.035000000000004</v>
       </c>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Kentucky\eps-kentucky\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14ED1D-0873-4225-886F-46CA23393653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,7 +172,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -602,7 +601,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,47 +715,37 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="J2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="K2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="M2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="N2">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
         <v>0</v>
       </c>
       <c r="O2">
@@ -821,47 +810,37 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="E3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="F3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="G3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="H3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="I3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="J3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="K3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="L3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="M3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="N3">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3">

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268FE25-6FA1-4964-97BE-7705BD55074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE04AC-F20D-4961-BFF8-FD6C6D2A3949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -497,19 +497,19 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,22 +517,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.78500000000000003</v>
       </c>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -548,7 +548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -570,12 +570,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -584,7 +584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -622,16 +622,16 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+      <selection activeCell="C2" sqref="C2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -726,7 +726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -736,45 +736,35 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="E2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="F2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="G2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="H2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="I2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="J2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="K2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="L2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="M2">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -831,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -841,45 +831,35 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="E3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="F3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="G3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="H3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="I3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="J3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="K3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="L3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="M3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -952,9 +932,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1029,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3F35D-7F66-4C00-89AD-AA6C0182CF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7E4E2-0D86-40E4-AC1D-1226986EB12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,7 +183,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -553,7 +552,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,55 +764,55 @@
       </c>
       <c r="D2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -871,45 +870,45 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
-        <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+      <c r="D3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f>About!$B$11*About!$A$9</f>
-        <v>62.05</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
